--- a/sql/200529_DB설계 (1).xlsx
+++ b/sql/200529_DB설계 (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HPE\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HPE\Desktop\조흔지\프로젝트\GIT\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -853,6 +853,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> (select List_Startdate from making_bucket) );</t>
     </r>
@@ -898,7 +900,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -953,6 +955,24 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u val="double"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <i/>
+      <u val="double"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1133,7 +1153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,11 +1213,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1206,32 +1253,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1239,11 +1265,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1285,7 +1311,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1329,7 +1355,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1399,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1443,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1492,7 @@
         <xdr:cNvPr id="2" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1536,7 @@
         <xdr:cNvPr id="3" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1580,7 @@
         <xdr:cNvPr id="4" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1624,7 @@
         <xdr:cNvPr id="5" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1642,7 +1668,7 @@
         <xdr:cNvPr id="7" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1686,7 +1712,7 @@
         <xdr:cNvPr id="8" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1756,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82386242-AD79-4E7F-B218-A9EA0889CBC7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82386242-AD79-4E7F-B218-A9EA0889CBC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,27 +2072,27 @@
       <c r="C2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="28"/>
@@ -2080,7 +2106,7 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -2092,7 +2118,7 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="31"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -2104,7 +2130,7 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="31"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -2116,60 +2142,60 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B7" s="31"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B8" s="31"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="26"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="26"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="3" t="s">
         <v>101</v>
       </c>
@@ -2187,8 +2213,8 @@
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -2230,14 +2256,14 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="33"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="26"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="3" t="s">
@@ -2272,14 +2298,14 @@
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="26"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="J13" s="3" t="s">
@@ -2293,14 +2319,14 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="26"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
       <c r="J14" s="3" t="s">
@@ -2332,14 +2358,14 @@
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="33"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
       <c r="J15" s="3" t="s">
@@ -2365,32 +2391,32 @@
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B16" s="31"/>
-      <c r="C16" s="33"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="26"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="31"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="26"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="20" t="s">
         <v>15</v>
       </c>
@@ -2401,8 +2427,8 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="31"/>
-      <c r="C19" s="33"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -2411,58 +2437,58 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="31"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="29" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="29"/>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="26"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="31"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="31"/>
-      <c r="C22" s="33"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="31"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="26"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="31"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="20" t="s">
@@ -2473,7 +2499,7 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="31"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="20" t="s">
         <v>5</v>
       </c>
@@ -2481,53 +2507,53 @@
         <v>25</v>
       </c>
       <c r="E25" s="20"/>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="26"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="31"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="26"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="6"/>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="31"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="20"/>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="26"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="32"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="25" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="25"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="8"/>
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="28" t="s">
@@ -2537,39 +2563,39 @@
         <v>43</v>
       </c>
       <c r="E29" s="28"/>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="34"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="31"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="26"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="6"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="31"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="26"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="6"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="31"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="20" t="s">
         <v>23</v>
       </c>
@@ -2577,49 +2603,49 @@
         <v>38</v>
       </c>
       <c r="E32" s="20"/>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="26"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="6"/>
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="31"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="20"/>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="26"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="31"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="26"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="6"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="25" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="25"/>
+      <c r="G35" s="34"/>
       <c r="H35" s="8"/>
       <c r="I35" s="9"/>
     </row>
@@ -2673,6 +2699,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="D33:E35"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D7:E9"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D11:E17"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="D20:E24"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F3:F6"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="B29:B35"/>
     <mergeCell ref="F13:G13"/>
@@ -2689,42 +2751,6 @@
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="B3:B28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D7:E9"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D11:E17"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="D20:E24"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D33:E35"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -2734,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2923,28 +2949,28 @@
       <c r="G8" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="N10" s="37" t="s">
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="N10" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -3172,19 +3198,19 @@
       <c r="L15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="39">
         <v>4</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="39">
         <v>10</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3343,27 +3369,27 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="H23" s="36" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="H23" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="N23" s="36" t="s">
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="N23" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
@@ -3676,13 +3702,13 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="15" t="s">
@@ -3734,6 +3760,9 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C41" s="15"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
